--- a/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation_01_02_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Color Codes</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>IOB800-1</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
@@ -297,14 +309,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,7 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,14 +639,14 @@
     <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -650,18 +662,18 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -677,15 +689,15 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
@@ -704,13 +716,13 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
@@ -729,11 +741,11 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -752,7 +764,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -765,15 +777,15 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="24"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -826,8 +838,14 @@
       <c r="R7" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -879,6 +897,12 @@
       </c>
       <c r="R8" s="7">
         <v>0.20799999999999999</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -890,6 +914,7 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -150,10 +150,10 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,8 @@
     <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">

--- a/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E2F242-0A62-4F6B-9551-F6BE92DE1F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Color Codes</t>
   </si>
@@ -126,12 +127,6 @@
     <t>Slot Cards</t>
   </si>
   <si>
-    <t>PNI800</t>
-  </si>
-  <si>
-    <t>PNI800-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                           Panel Accessories</t>
   </si>
   <si>
@@ -141,9 +136,6 @@
     <t xml:space="preserve">Accessories </t>
   </si>
   <si>
-    <t>IOB800-1</t>
-  </si>
-  <si>
     <t>AlarmLoadingDetail</t>
   </si>
   <si>
@@ -154,12 +146,24 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A-1</t>
+  </si>
+  <si>
+    <t>NGC-488/T395 OR TC-148</t>
+  </si>
+  <si>
+    <t>IOB800 - 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,11 +619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8:T8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,7 +725,9 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
@@ -779,7 +785,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -840,10 +846,10 @@
         <v>27</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -870,28 +876,28 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="7">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="O8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7">
         <v>2.9000000000000001E-2</v>
@@ -900,10 +906,10 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/TC_148_Verify_Battery_Standby_And_Alarm_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E2F242-0A62-4F6B-9551-F6BE92DE1F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1B3322-1161-4630-8AAB-FFE458D00D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t xml:space="preserve">                                           Panel Accessories</t>
   </si>
   <si>
-    <t>IOB800</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accessories </t>
   </si>
   <si>
@@ -157,7 +154,10 @@
     <t>NGC-488/T395 OR TC-148</t>
   </si>
   <si>
-    <t>IOB800 - 1</t>
+    <t>POS800-M - 1</t>
+  </si>
+  <si>
+    <t>POS800-M</t>
   </si>
 </sst>
 </file>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -846,10 +846,10 @@
         <v>27</v>
       </c>
       <c r="S7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -876,13 +876,13 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7">
         <v>1.7000000000000001E-2</v>
@@ -891,25 +891,25 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="P8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7">
-        <v>2.9000000000000001E-2</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="R8" s="7">
-        <v>0.20799999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="S8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
